--- a/catalogsList/05072021/executiveAuthority.xlsx
+++ b/catalogsList/05072021/executiveAuthority.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="420">
   <si>
     <t>id</t>
   </si>
@@ -24,505 +24,1258 @@
     <t>name</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>Агентство лесного хозяйства и охраны животного мира Камчатского края</t>
   </si>
   <si>
-    <t>683006, г. Петропавловск-Камчатский, ул. Чубарова, д. 18</t>
-  </si>
-  <si>
     <t>Агентство по охране, воспроизводству и использованию объектов животного мира и лесов Калининградской области</t>
   </si>
   <si>
-    <t>236022, Калининградская область, г. Калининград, Советский пр-т, д. 13/17</t>
-  </si>
-  <si>
     <t>Главное управление лесами Челябинской области</t>
   </si>
   <si>
-    <t>454092, Челябинская область, г. Челябинск, ул. Энгельса, д. 54 </t>
-  </si>
-  <si>
     <t>Главное управление лесного хозяйства Омской области</t>
   </si>
   <si>
-    <t>644001, г. Омск, ул. Куйбышева, д. 63</t>
-  </si>
-  <si>
     <t>Главное Управление природных ресурсов и экологии Алтайского края</t>
   </si>
   <si>
-    <t>656056, Алтайский край, г. Барнаул, ул. Пролетарская, д. 61</t>
-  </si>
-  <si>
     <t>Государственная лесная служба Забайкальского края (Гослесслужба края)</t>
   </si>
   <si>
-    <t>672000 г. Чита, ул. Ленинградская, 15</t>
-  </si>
-  <si>
     <t>Государственный комитет по лесному и охотничьему хозяйству Республики Крым</t>
   </si>
   <si>
-    <t>295021, г. Симферополь, ул. Гавена, д. 2.</t>
-  </si>
-  <si>
     <t>Государственный комитет по лесному хозяйству Республики Тыва</t>
   </si>
   <si>
-    <t>667011, Республика Тыва, г. Кызыл, ул. Калинина, д. 1б </t>
-  </si>
-  <si>
     <t>Государственный комитет Псковской области по природопользованию и охране окружающей среды</t>
   </si>
   <si>
-    <t>180001, Псковская область, г. Псков, ул. Некрасова, д. 23</t>
-  </si>
-  <si>
     <t>Департамент лесного комплекса Вологодской области</t>
   </si>
   <si>
-    <t>160000, Вологодская область, г. Вологда, ул. Герцена, д. 27</t>
-  </si>
-  <si>
     <t>Департамент лесного комплекса Кемеровской области</t>
   </si>
   <si>
-    <t>650036, г. Кемерово, ул. Мирная, д. 5</t>
-  </si>
-  <si>
     <t>Департамент лесного комплекса Тюменской области</t>
   </si>
   <si>
-    <t>625000, г. Тюмень, ул. Первомайская, д. 34/1</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства администрации Владимирской области</t>
   </si>
   <si>
-    <t>600023, Владимирская область, г. Владимир, Судогодское шоссе, д. 11-б</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Костромской области</t>
   </si>
   <si>
-    <t>156013, Костромская область, г. Кострома, проспект Мира, д. 128-а</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Нижегородской области</t>
   </si>
   <si>
-    <t>603134, Нижегородская область, г. Нижний Новгород, ул. Костина, д. 2</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Новосибирской области</t>
   </si>
   <si>
-    <t>630011, г. Новосибирск, Красный проспект, д. 18</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Приморского края</t>
   </si>
   <si>
-    <t>690024, Приморский край, г. Владивосток, ул. Белинского, д. 3-а</t>
-  </si>
-  <si>
-    <t>443070, г. Самара, ул. Партизанская, д. 33б</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Томской области</t>
   </si>
   <si>
-    <t>634050, Томская область, г. Томск, пр. Кирова, 41</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Ярославской области</t>
   </si>
   <si>
-    <t>150055, Ярославская область, г. Ярославль, Красноборская, д. 8</t>
-  </si>
-  <si>
     <t>Департамент по лесным отношениям Республики Саха (Якутия)</t>
   </si>
   <si>
-    <t>677018, г. Якутск, пр.  Ленина, д. 22</t>
-  </si>
-  <si>
     <t>Департамент природно-ресурсного регулирования, лесных отношений и развития нефтегазового комплекса Ямало-Ненецкого АО</t>
   </si>
   <si>
-    <t>629008, Ямало-Ненецкий АО, г. Салехард, ул. Матросова, д. 29</t>
-  </si>
-  <si>
     <t>Департамент природных ресурсов и охраны окружающей среды Курганской области</t>
   </si>
   <si>
-    <t>640021, Курганская область, г. Курган, ул. Володарского, д. 65а</t>
-  </si>
-  <si>
     <t>Департамент сельскохозяйственной политики и природопользования Чукотского АО</t>
   </si>
   <si>
-    <t>689000, Чукотский АО, г. Анадырь, ул. Отке, д. 4</t>
-  </si>
-  <si>
     <t>Департамент Смоленской области по охране, контролю и регулированию использования лесного хозяйства, объектов животного мира и среды их обитания</t>
   </si>
   <si>
-    <t>214004, Смоленская область, г. Смоленск, ул. Николаева, д. 12Б</t>
-  </si>
-  <si>
     <t>Исполнение полномочий в области лесных отношений в Ненецком АО передано Агентству лесного и охотничьего хозяйств Архангельской области</t>
   </si>
   <si>
     <t>Комитет Ивановской области по лесному хозяйству</t>
   </si>
   <si>
-    <t>153012, Ивановская область, г. Иваново, ул. Суворова, д. 44</t>
-  </si>
-  <si>
     <t>Комитет лесного хозяйства и лесной промышленности Новгородской области</t>
   </si>
   <si>
-    <t>173002, Новгородская область, г. Великий Новгород, Воскресенский</t>
-  </si>
-  <si>
     <t>Комитет лесного хозяйства Московской области</t>
   </si>
   <si>
-    <t>143441, Московская область, Красногорский район, п/о Путилково, 69 км</t>
-  </si>
-  <si>
     <t>Комитет лесного хозяйства Правительства Хабаровского края</t>
   </si>
   <si>
-    <t>680020, г. Хабаровск, ул. Запарина, д. 5</t>
-  </si>
-  <si>
     <t>Комитет лесного хозяйства Республики Северная Осетия-Алания</t>
   </si>
   <si>
-    <t>362021, РСО-Алания, г. Владикавказ, ул. Иристонская, д. 25</t>
-  </si>
-  <si>
     <t>Комитет лесов Республики Коми</t>
   </si>
   <si>
-    <t>167982, Республика Коми, г. Сыктывкар, ул. Интернациональная, д. 108а.</t>
-  </si>
-  <si>
     <t>Комитет по лесному хозяйству Республики Дагестан</t>
   </si>
   <si>
-    <t>367010, Республика Дагестан, г. Махачкала, ул. Гагарина, д. 51</t>
-  </si>
-  <si>
     <t>Комитет по природным ресурсам Ленинградской области</t>
   </si>
   <si>
-    <t>197342, г. Санкт-Петербург, ул. Торжковская, д. 4</t>
-  </si>
-  <si>
     <t>Комитет природных ресурсов Курской области</t>
   </si>
   <si>
-    <t>Курская область, г. Курск, ул. 3-я Песковая, д.40</t>
-  </si>
-  <si>
     <t>Комитет Республики Ингушетия по лесному хозяйству</t>
   </si>
   <si>
-    <t>386202, Республика Ингушетия, Сунженский р-н, ст. Орждоникидзевская, ул.</t>
-  </si>
-  <si>
     <t>Министерства природных ресурсов и экологии Магаданской области</t>
   </si>
   <si>
-    <t>685000, г. Магадан, ул. Набережная р. Магаданки, д. 15</t>
-  </si>
-  <si>
     <t>Министерство  лесного комплекса Иркутской области</t>
   </si>
   <si>
-    <t>664011 г.Иркутск, ул.Горького, д.31</t>
-  </si>
-  <si>
     <t>Министерство лесного, охотничьего хозяйства и природопользования Пензенской области</t>
   </si>
   <si>
-    <t>440014, г. Пенза, Лодочный проезд, д. 10</t>
-  </si>
-  <si>
     <t>Министерство лесного, охотничьего хозяйства и природопользования Республики Мордовия</t>
   </si>
   <si>
-    <t>430000, Республика Мордовия, г. Саранск, ул. Коммунистическая, д. 50 </t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства и пожарной безопасности Амурской области </t>
   </si>
   <si>
-    <t>675000, г. Благовещенск, ул. Красноармейская, д. 173</t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства Калужской области</t>
   </si>
   <si>
-    <t>248001, Калужская область, г. Калуга, ул. Плеханова, д. 45</t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства Кировской области</t>
   </si>
   <si>
-    <t>610020, Кировская область, г. Киров, ул. Пятницкая, д. 32</t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства, охраны окружающей среды и природопользования Самарской области</t>
   </si>
   <si>
     <t>Министерство лесного хозяйства Республики Башкортостан</t>
   </si>
   <si>
-    <t>450006, Республика Башкортостан, г. Уфа, ул. Ленина, д. 86</t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства Республики Марий Эл</t>
   </si>
   <si>
-    <t>424000, Республика Марий Эл, г. Йошкар-Ола, Ленинский проспект д. 24б</t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства Республики Татарстан</t>
   </si>
   <si>
-    <t>420124, Республика Татарстан, г. Казань, пр-кт Ямашева, д. 37а</t>
-  </si>
-  <si>
     <t>Министерство лесного хозяйства Тверской области</t>
   </si>
   <si>
-    <t>170100, г. Тверь, Свободный пер-к, д. 9</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и лесопромышленного комплекса Архангельской области</t>
   </si>
   <si>
-    <t>163000, г. Архангельск, ул. Выучейского, д. 18</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и охраны окружающей среды Республики Калмыкия</t>
   </si>
   <si>
-    <t>358000, Республика Калмыкия, г.Элиста, ул.Номто Очирова,15</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и охраны окружающей среды Ставропольского края</t>
   </si>
   <si>
-    <t>355006, г. Ставрополь, ул. Голенева, д. 18</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и охраны окружающей среды Удмуртской Республики</t>
   </si>
   <si>
-    <t>426051, Республика Удмуртская, город Ижевск, улица Максима Горького, дом 73/1</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и охраны окружающей среды Чеченской Республики</t>
   </si>
   <si>
-    <t>364020, Чеченская Республика, г. Грозный, ул. Кутузова д. 5</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Кабардино-Балкарской Республики</t>
   </si>
   <si>
-    <t>360017, Кабардино-Балкарская Республика, г. Нальчик, ул. Балкарская, д.</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Красноярского края</t>
   </si>
   <si>
-    <t>660009, Красноярский край, г. Красноярск, ул. Мира, д. 110</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Республики Хакасия</t>
   </si>
   <si>
-    <t>655017, Республика Хакасия, г. Абакан, ул. Щетинкина, д. 18 </t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Ростовской области</t>
   </si>
   <si>
-    <t>344072, г. Ростов-на-Дону, пр-т 40-летия победы, д. 1 А.</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Саратовской области</t>
   </si>
   <si>
-    <t>410012, г. Саратов, ул. Университетская, д. 45/51</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Свердловской области</t>
   </si>
   <si>
-    <t>620075, область. Свердловская, город. Екатеринбург, улица. Малышева, дом 101</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Тульской области</t>
   </si>
   <si>
-    <t>300007, Тульская область, г. Тула, ул. Оборонная, д. 114 а</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов и экологии Чувашской Республики</t>
   </si>
   <si>
-    <t>428032, Чувашская Республика, г. Чебоксары, ул. Ленинградская, д. 33</t>
-  </si>
-  <si>
-    <t>Министерство природных ресурсов и экологии Мурманской области</t>
-  </si>
-  <si>
-    <t>183032, г. Мурманск, проспект Кольский, д.1</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов Краснодарского края</t>
   </si>
   <si>
-    <t>350020, г. Краснодар, ул. Красная, 180 </t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов, лесного хозяйства и экологии Пермского края</t>
   </si>
   <si>
-    <t>614990, Пермский край, г. Пермь, ул. Попова, д. 11</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов, экологии и имущественных отношений Оренбургской области</t>
   </si>
   <si>
-    <t>460040, г. Оренбург, ул. 20-я линия, д. 24</t>
-  </si>
-  <si>
     <t>Министерство природных ресурсов, экологии и имущественных отношений республики Алтай</t>
   </si>
   <si>
-    <t>649000, Республика Алтай, г. Горно-Алтайск, ул. Ленина, д. 12</t>
-  </si>
-  <si>
     <t>Министерство сельского, лесного хозяйства и природных ресурсов Ульяновской области</t>
   </si>
   <si>
-    <t>432063, Ульяновская область, г. Ульяновск, ул. Радищева, д.5</t>
-  </si>
-  <si>
     <t>Министерство по природопользованию и экологии Республики Карелия</t>
   </si>
   <si>
-    <t>185035, Республика Карелия, г. Петрозаводск, ул. Андропова д. 2/24</t>
-  </si>
-  <si>
     <t>Министерство природопользования Рязанской области</t>
   </si>
   <si>
-    <t>390006, Рязанская область, г. Рязань, ул. Есенина, 9</t>
-  </si>
-  <si>
     <t>Министерство экологии Сахалинской области</t>
   </si>
   <si>
-    <t>693020, г. Южно-Сахалинск, Коммунистичкский пр-т, д. 39 Б</t>
-  </si>
-  <si>
     <t>Республиканское Агентство лесного хозяйства Республики Бурятия</t>
   </si>
   <si>
-    <t>670013, Республика Бурятия, г. Улан-Удэ, ул. Ключевская, д. 39а</t>
-  </si>
-  <si>
     <t>Служба по контролю и надзору в сфере охраны окружающей среды, объектов животного мира и лесных отношений Ханты-Мансийского АО - Югры</t>
   </si>
   <si>
-    <t>628011, г. Ханты-Мансийск, ул. Светлая, д. 69</t>
-  </si>
-  <si>
     <t>Служба природопользования и охраны окружающей среды Астраханской области</t>
   </si>
   <si>
-    <t>414000, г. Астрахань, ул. Советская д. 14</t>
-  </si>
-  <si>
     <t>Управление лесами Белгородской области</t>
   </si>
   <si>
-    <t>308000, Белгородская область, г. Белгород, ул. Преображенская, д. 102</t>
-  </si>
-  <si>
     <t>Управление лесами Брянской области</t>
   </si>
   <si>
-    <t>241050, Брянская область, г. Брянск, ул. Калинина, д. 34</t>
-  </si>
-  <si>
     <t>Управление лесами Карачаево-Черкесской Республики</t>
   </si>
   <si>
-    <t>369000, Карачаево-Черкесская Республика, г. Черкесск, ул.</t>
-  </si>
-  <si>
     <t>Управление лесами Орловской области</t>
   </si>
   <si>
-    <t>302001, Орловская область, г. Орел, ул. Комсомольская, д. 33</t>
-  </si>
-  <si>
     <t>Управление лесами Правительства Еврейской АО</t>
   </si>
   <si>
-    <t>679015, Еврейская АО, г. Биробиджан, ул. Советская, д. 111</t>
-  </si>
-  <si>
     <t>Управление лесами Республики Адыгея</t>
   </si>
   <si>
-    <t>385000, Республика Адыгея, г. Майкоп, ул. Краснооктябрьская, д. 55</t>
-  </si>
-  <si>
     <t>Управление лесами Тамбовской области</t>
   </si>
   <si>
-    <t>392036, Тамбовская область, г. Тамбов, Кронштадтская площадь, д. 7А</t>
-  </si>
-  <si>
     <t>Управление лесного и охотничьего хозяйства города Севастополя</t>
   </si>
   <si>
-    <t>299043, г. Севастополь, ул. Новикова, 60-А</t>
-  </si>
-  <si>
     <t>Управление лесного хозяйства Воронежской области</t>
   </si>
   <si>
-    <t>394 036, г. Воронеж, ул. Сакко и Ванцетти, д.58</t>
-  </si>
-  <si>
     <t>Управление лесного хозяйства Липецкой области</t>
   </si>
   <si>
-    <t>Липецкая обл, г. Липецк, ул. Имени Н.К. Крупской, д. 1</t>
-  </si>
-  <si>
     <t> Министерство природных ресурсов и экологии Волгоградской области</t>
   </si>
   <si>
-    <t>400078, г. Волгоград, проспект им. В.И.Ленина, д. 102 </t>
-  </si>
-  <si>
     <t>subjectId</t>
+  </si>
+  <si>
+    <t>landTypeId</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Адыгея»</t>
+  </si>
+  <si>
+    <t>Алкинское лесничество Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л БАШКИРСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Южно-Уральский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Башкирский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Шульган-Таш"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Башкирия"</t>
+  </si>
+  <si>
+    <t>Администрация городского округа Город Октябрьский</t>
+  </si>
+  <si>
+    <t>Министерство земельных и имущественных отношений Республики Башкортостан</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Башкортостан»</t>
+  </si>
+  <si>
+    <t>ФГУ «УЛАН-УДЭНСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» СИБИРСКОГО ВОЕННОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л УЛАН-УДЭНСКОЕ)</t>
+  </si>
+  <si>
+    <t>Управление Федеральной службы по ветеринарному и фитосанитарному надзору по Иркутской области и Республике Бурятия</t>
+  </si>
+  <si>
+    <t>ФГБУ "Заповедное подлеморье"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Тункинский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Байкальский государственный природный биосферный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ «Государственный заповедник «Джергинский»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Бурятия»</t>
+  </si>
+  <si>
+    <t>МАУ "Администрация рекреационной местности Северо-Байкальская"</t>
+  </si>
+  <si>
+    <t>Правительство Республики Бурятия</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов</t>
+  </si>
+  <si>
+    <t>Прибайкальская районная администрация</t>
+  </si>
+  <si>
+    <t>МУ "Комитет городского хозяйства Администрации г. Улан-Удэ"</t>
+  </si>
+  <si>
+    <t>ФГБУ «Алтайский государственный заповедник»)</t>
+  </si>
+  <si>
+    <t>ФГБУ «Государственный природный биосферный заповедник «Катунский»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Алтайского края»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Дагестан»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Эрзи"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Чеченской Республики»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Ставропольского края»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Волгоградской области»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Тебердинский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГУ «ХВОЙНОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ХВОЙНОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Нижне-Свирский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Костомукшский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Водлозерский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Паанаярви"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Ленинградской области»</t>
+  </si>
+  <si>
+    <t>Управление Федеральной службы по ветеринарному и фитосанитарному надзору по Республике Карелия</t>
+  </si>
+  <si>
+    <t>Администрация муниципального района "Прилузский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Печоро-Илычский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Югыд Ва"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Коми»</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов и охраны окружающей среды Республики Коми</t>
+  </si>
+  <si>
+    <t>ФГУ «СУСЛОНГЕРСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л МАРИЙСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк" Марий чодра"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Большая Кокшага"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Марий Эл»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Мордовский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Смольный"</t>
+  </si>
+  <si>
+    <t>ФГБУ «Объединенная дирекция Мордовского государственного природного заповедника имени П.Г. Смидовича и национального парка «Смольный»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Мордовия»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Заповедник "Олекминский"</t>
+  </si>
+  <si>
+    <t>Министерство экологии, природопользования и лесного хозяйства Республики Саха (Якутия)</t>
+  </si>
+  <si>
+    <t>Муниципальное образование "Ленский район"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Северо-Осетинский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ПРИРОДНЫХ РЕСУРСОВ И ЭКОЛОГИИ РЕСПУБЛИКИ СЕВЕРНАЯ ОСЕТИЯ-АЛАНИЯ</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ЯРОСЛАВСКОЕ)</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение "Национальный парк "Нижняя Кама"</t>
+  </si>
+  <si>
+    <t>ФГБУ «Национальный парк «Нижняя Кама»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Волжско-Камский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Татарстан»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Авас"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный биосферный заповедник "Убсунурская котловина"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Республики Тыва»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ПЕРМСКОЕ)</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение "Национальный парк "Нечкинский"</t>
+  </si>
+  <si>
+    <t>Администрация г. Воткинска</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Пермского края»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Хакасский"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Красноярского края»</t>
+  </si>
+  <si>
+    <t>ГКУ Республики Хакасия "Дирекция по особо охраняемым природным территориям Республики Хакасия"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк" Чаваш вармане"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Присурский"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Чувашской Республики»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л АЛТАЙСКОЕ)</t>
+  </si>
+  <si>
+    <t>Администрация города Бийска</t>
+  </si>
+  <si>
+    <t>Администрация города Барнаула</t>
+  </si>
+  <si>
+    <t>ФГУ "ЯРОСЛАВСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО"</t>
+  </si>
+  <si>
+    <t>ФГУ «САРАТОВСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л САРАТОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Кавказский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Сочинский национальный парк"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Краснодарского края»</t>
+  </si>
+  <si>
+    <t>ФГУ "Красноярское военное лесничество"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КРАСНОЯРСКОЕ)</t>
+  </si>
+  <si>
+    <t>Краевое государственное казенное учреждение "Лесная охрана"</t>
+  </si>
+  <si>
+    <t>Администрация ЗАТО г. Железногорск</t>
+  </si>
+  <si>
+    <t>Министерство лесного хозяйства Красноярского края</t>
+  </si>
+  <si>
+    <t>ФГБУ "Объединенная дирекция заповедников Таймыра"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный биосферный заповедник "Центральносибирский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Тунгусский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Столбы"</t>
+  </si>
+  <si>
+    <t>ФГБУ «Государственный природный заповедник "Саяно-Шушенский"»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Шушенский бор"</t>
+  </si>
+  <si>
+    <t>Администрация ЗАТО города Зеленогорска Красноярского края</t>
+  </si>
+  <si>
+    <t>ПАРТИЗАНСКОЕ ЛЕСНИЧЕСТВО МИНОБОРОНЫ РОССИИ - ФИЛИАЛ ФГУ "УЭИР МИНОБОРОНЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t>ФГУ УССУРИЙСКОЕ ЛЕСНИЧЕСТВО МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>247 лесничество Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ВЛАДИВОСТОКСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ПАРТИЗАНСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л УССУРИЙСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Земля леопарда"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Объединенная дирекция Лазовского государственного заповедника имени Л.Г. Капланова и национального парка "Зов тигра"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Сихотэ-Алинский государственный природный биосферный заповедник им.К.Г.Абрамова"</t>
+  </si>
+  <si>
+    <t>ФГБУ "ГОСУДАРСТВЕННЫЙ ЗАПОВЕДНИК "ХАНКАЙСКИЙ"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Приморского края»</t>
+  </si>
+  <si>
+    <t>Хабаровское лесничество Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ХАБАРОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Заповедное Приамурье"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный  природный заповедник "Ботчинский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный  природный заповедник "Буреинский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный  природный заповедник "Джугджурский"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Хабаровского края»</t>
+  </si>
+  <si>
+    <t>ГУ АМУРСКОЙ ОБЛАСТИ "ЗАВИТИНСКОЕ ЛЕСНИЧЕСТВО"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л АМУРСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ Государственный природный заповедник  "Норский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Хинганский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Забайкальского края»</t>
+  </si>
+  <si>
+    <t>ФГУ «155 ВОЕННОЕ ЛЕСНИЧЕСТВО» ГЛАВНОГО КВАРТИРНО-ЭКСПЛУАТАЦИОННОГО УПРАВЛЕНИЯ МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л АРХАНГЕЛЬСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Пинежский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Кенозерский"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Архангельской области»</t>
+  </si>
+  <si>
+    <t>ФГБУ «Национальный парк «Онежское Поморье»</t>
+  </si>
+  <si>
+    <t>Администрация муниципального образования "Котлас"</t>
+  </si>
+  <si>
+    <t>Комитет по управлению муниципальным имуществом Администрации Устьянского муниципального района Архангельской области</t>
+  </si>
+  <si>
+    <t>Управление Федеральной службы по ветеринарному и фитосанитарному надзору по Архангельской области и Ненецкому автономному округу</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Белогорье"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Воронежской области»</t>
+  </si>
+  <si>
+    <t>Управление лесного и охотничьего хозяйства Белгородской области</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л БРЯНСКОЕ)</t>
+  </si>
+  <si>
+    <t>Администрация города Сельцо Брянской области</t>
+  </si>
+  <si>
+    <t>ФГУ "Брянское военное лесничество" Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФГБУ Государственный природный биосферный заповедник "Брянский лес"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Калужской области»</t>
+  </si>
+  <si>
+    <t>Администрация Севского муниципального района Брянской области</t>
+  </si>
+  <si>
+    <t>ФГУ «КОСТЕРЕВСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» ГЛАВНОГО КВАРТИРНО-ЭКСПЛУАТАЦИОННОГО УПРАВЛЕНИЯ МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КОСТЕРЕВСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Мещёра"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ГОРОХОВЕЦКОЕ, Владимирская область)</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Владимирской области»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л МОСКОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>Комитет дорожного хозяйства, благоустройства и охраны окружающей среды администрации Волгограда</t>
+  </si>
+  <si>
+    <t>Комитет лесного хозяйства Волгоградской области </t>
+  </si>
+  <si>
+    <t>Комитет природных ресурсов, лесного хозяйства и экологии Волгоградской области</t>
+  </si>
+  <si>
+    <t>ФГБУ "Дарвинский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Русский Север"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Воронежский государственный природный биосферный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Хоперский государственный природный  заповедник"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ГОРОХОВЕЦКОЕ, Ивановская область)</t>
+  </si>
+  <si>
+    <t>Агентство лесного хозяйства Иркутской области</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л НИЖНЕУДИНСКОЕ)</t>
+  </si>
+  <si>
+    <t>МУНИЦИПАЛЬНОЕ ОБРАЗОВАНИЕ ГОРОД УСТЬ-ИЛИМСК</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ШЕЛЕХОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Заповедное Прибакалье"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный  природный заповедник "Витимcкий"</t>
+  </si>
+  <si>
+    <t>Комитет городского обустройства администрации города Иркутска</t>
+  </si>
+  <si>
+    <t>Администрация Шаманского сельского поселения</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Иркутской области»</t>
+  </si>
+  <si>
+    <t>Администрация города Братска</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Куршская коса"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Калининградской области»</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов и экологии Калининградской области</t>
+  </si>
+  <si>
+    <t>Управление охотничьего и лесного хозяйства Калининградской области</t>
+  </si>
+  <si>
+    <t>Администрации городского округа "город Калининград"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л МОРОЗОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Калужские засеки"</t>
+  </si>
+  <si>
+    <t>Национальный парк "Угра"</t>
+  </si>
+  <si>
+    <t>Администрация города Обнинска</t>
+  </si>
+  <si>
+    <t>102 лесничество Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КАМЧАТСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Кроноцкий государственный природный биосферный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный заповедник "Кузнецкий Алатау"</t>
+  </si>
+  <si>
+    <t>ФГБУ "ШОРСКИЙ НАЦИОНАЛЬНЫЙ ПАРК"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Томской области»</t>
+  </si>
+  <si>
+    <t>Администрация Тайгинского городского округа</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л НОВОСИБИРСКОЕ)</t>
+  </si>
+  <si>
+    <t>Полярное лесничество Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КИРОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>Кировское областное государственное казенное учреждение "Кировский центр лесного хозяйства"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Нургуш"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Нижегородской области»</t>
+  </si>
+  <si>
+    <t>Администрация Верхнекамского района</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Кологривский лес"</t>
+  </si>
+  <si>
+    <t>Администрация Кологривского муниципального района</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ГОРОХОВЕЦКОЕ, Костромская область)</t>
+  </si>
+  <si>
+    <t>Комитет по управлению муниципальным имуществом Администрации города Щадринска</t>
+  </si>
+  <si>
+    <t>Администрация города Кургана</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Курганской области»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л СВЕРДЛОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>Комитет экологической безопасности и природопользования города Курска Администрации города Курска</t>
+  </si>
+  <si>
+    <t>ФГБУ "Центрально-черноземный государственный заповедник"</t>
+  </si>
+  <si>
+    <t>Администрация города Льгова Курской области</t>
+  </si>
+  <si>
+    <t>Комитет городского хозяйства города Курска</t>
+  </si>
+  <si>
+    <t>ФГУ «МИЧУРИНСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФГУ «МОРОЗОВСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ЛУЖСКОЕ)</t>
+  </si>
+  <si>
+    <t>Комитет государственного экологического надзора Ленинградской области</t>
+  </si>
+  <si>
+    <t>Администрация муниципального образования Выскатское сельское поселение</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Тульской области”</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Магаданский"</t>
+  </si>
+  <si>
+    <t>ФГУ «МОСКОВСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФГБУ "Приокско-террасный государственный заповедник"</t>
+  </si>
+  <si>
+    <t>Войсковая часть 28178</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов, экологии и рыбного хозяйства Мурманской области</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение "Лапландский государственный природный биосферный заповедник"</t>
+  </si>
+  <si>
+    <t>Администрация города Мурманска, комитет по развитию городского хозяйства</t>
+  </si>
+  <si>
+    <t>ФГБУ "Кандалакшский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Пасвик"</t>
+  </si>
+  <si>
+    <t>ФГУ "Гороховецкое военное лесничество" Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ГОРОХОВЕЦКОЕ, Нижегородская область)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Керженский"</t>
+  </si>
+  <si>
+    <t>Администрация г. Дзержинска</t>
+  </si>
+  <si>
+    <t>Администрация г. Нижнего Новгорода</t>
+  </si>
+  <si>
+    <t>Администрация городского округа города Кулебаки</t>
+  </si>
+  <si>
+    <t>Администрация города Сарова</t>
+  </si>
+  <si>
+    <t>Оператор ОИВ-СХЗ Нижегородской области</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Валдайский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Рдейский"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Новгородской области»</t>
+  </si>
+  <si>
+    <t>Администрация Ореховского сельского поселения</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов, лесного хозяйства и экологии Новгородской области</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ТВЕРСКОЕ)</t>
+  </si>
+  <si>
+    <t>Администрация рабочего поселка Сузун Сузунского района Новосибирской области</t>
+  </si>
+  <si>
+    <t>НОВОСИБИРСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО</t>
+  </si>
+  <si>
+    <t>ФГУ АЛТАЙСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО СИБИРСКОГО ВОЕННОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов и экологии Новосибирской области</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Новосибирской области»</t>
+  </si>
+  <si>
+    <t>Департамент энергетики, жилищного и коммунального хозяйства города Новосибирска</t>
+  </si>
+  <si>
+    <t>Администрация города Омска</t>
+  </si>
+  <si>
+    <t>Тоцкое военное лесничество</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ОРЕНБУРГСКОЕ)</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение "Национальный парк "Бузулукский бор"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Оренбургской области»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Орловское полесье"</t>
+  </si>
+  <si>
+    <t>ПЕНЗЕНСКОЕ ЛЕСНИЧЕСТВО МИНОБОРОНЫ РОССИИ</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Приволжская лесостепь"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Пензенской области»</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ПЕНЗЕНСКОЕ)</t>
+  </si>
+  <si>
+    <t>Пермское военное лесничество</t>
+  </si>
+  <si>
+    <t>Администрация города Березники</t>
+  </si>
+  <si>
+    <t>Администрации Чайковского городского поселения</t>
+  </si>
+  <si>
+    <t>Администрация Орлинского сельского поселения</t>
+  </si>
+  <si>
+    <t>Администрации Сретенского сельского поселения</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Басеги"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Вишерский"</t>
+  </si>
+  <si>
+    <t>Администрация города Соликамска</t>
+  </si>
+  <si>
+    <t>Управление по экологии и природопользованию администрации города Перми</t>
+  </si>
+  <si>
+    <t>Администрации Александровского муниципального района</t>
+  </si>
+  <si>
+    <t>ЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ПЕРМСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Полистовский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Себежский"</t>
+  </si>
+  <si>
+    <t>Комитет по природным ресурсам и экологии Псковской области</t>
+  </si>
+  <si>
+    <t>Администрация города Таганрога</t>
+  </si>
+  <si>
+    <t>Администрация города Ростова-на-Дону</t>
+  </si>
+  <si>
+    <t>ФГБУ "Окский государственный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Мещера"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Рязанской области»</t>
+  </si>
+  <si>
+    <t>Департамент лесного хозяйства Самарской области</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк" Самарская Лука"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Жигулевский государственный природный заповедник"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Хвалынский"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Саратовской области»</t>
+  </si>
+  <si>
+    <t>ФГУ "Территориальное управление лесного хозяйства" Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ЮЖНО-САХАЛИНСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Курильский"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный  природный заповедник "Поронайский"</t>
+  </si>
+  <si>
+    <t>Агентство лесного и охотничьего хозяйства</t>
+  </si>
+  <si>
+    <t>НИЖНЕТАГИЛЬСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО</t>
+  </si>
+  <si>
+    <t>Свердловское военное лесничество</t>
+  </si>
+  <si>
+    <t>Камышловское лесничество Министерства обороны Россиийской Федерации</t>
+  </si>
+  <si>
+    <t>ФГУ "Карелинское военное лесничество"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КАМЫШЛОВСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КАРЕЛИНСКОЕ)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л НИЖНЕТАГИЛЬСКОЕ)</t>
+  </si>
+  <si>
+    <t>Орган местного самоуправления Комитет по управлению имуществом города Каменска-Уральского</t>
+  </si>
+  <si>
+    <t>Администрация Артемовского городского округа</t>
+  </si>
+  <si>
+    <t>Администрации городского округа  Первоуральск</t>
+  </si>
+  <si>
+    <t>Администрация Ивдельского городского округа</t>
+  </si>
+  <si>
+    <t>Администрации городского округа  Ревда</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "ПРИПЫШМИНСКИЕ БОРЫ"</t>
+  </si>
+  <si>
+    <t>Администрация г. Нижний Тагил</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный природный заповедник "Денежкин камень"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Челябинской области»</t>
+  </si>
+  <si>
+    <t>Администрация города Екатеринбурга</t>
+  </si>
+  <si>
+    <t>Администрация Североуральского городского округа</t>
+  </si>
+  <si>
+    <t>Администрация Камышловского городского округа</t>
+  </si>
+  <si>
+    <t>Комитет по управлению муниципальным имуществом Качканарского городского округа</t>
+  </si>
+  <si>
+    <t>СХЗ ОИВ Свердловской области</t>
+  </si>
+  <si>
+    <t>Администрация муниципального образования "Город Десногорск" Смоленской области</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Смоленское поозерье"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Смоленской области»</t>
+  </si>
+  <si>
+    <t>ФГБУ "Государственный заповедник "Воронинский"</t>
+  </si>
+  <si>
+    <t>ФГУ «ТОПОЛЕВСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО» МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>ФГБУ "Центрально-Лесной государственный заповедник"</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Тверской области»</t>
+  </si>
+  <si>
+    <t>Управление имущественных отношений Администрации ЗАТО Северск</t>
+  </si>
+  <si>
+    <t>Администрация Малиновского сельского поселения</t>
+  </si>
+  <si>
+    <t>БОГАНДИНСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ТЮМЕНСКОЕ)</t>
+  </si>
+  <si>
+    <t>Государственное казенное учреждение Тюменской области «Тюменское управление лесами»</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Тюменской области»</t>
+  </si>
+  <si>
+    <t>Департамент лесного хозяйства Министерства сельского, лесного хозяйства и природных ресурсов Ульяновской области</t>
+  </si>
+  <si>
+    <t>Филиал ФБУ «Рослесозащита» «ЦЗЛ Ульяновской области»</t>
+  </si>
+  <si>
+    <t>Муниципальное бюджетное учреждение "Трехгорное лесничество"</t>
+  </si>
+  <si>
+    <t>Чебаркульское лесничество Минобороны России</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ЧЕЛЯБИНСКОЕ)</t>
+  </si>
+  <si>
+    <t>Администрация Миасского городского округа</t>
+  </si>
+  <si>
+    <t>Администрация Снежинского городского округа</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Зораткуль"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Таганай"</t>
+  </si>
+  <si>
+    <t>МКУ «Озерское лесничество»</t>
+  </si>
+  <si>
+    <t>ФГУ ИНГОДИНСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО СИБИРСКОГО ВОЕННОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t>ГУ ЧИТИНСКОЕ ВОЕННОЕ ЛЕСНИЧЕСТВО СИБИРСКОГО КВАРТИРНО-ЭКСПЛУАТАЦИОННОГО УПРАВЛЕНИЯ (ТЕРРИТОРИАЛЬНОГО)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ИНГОДИНСКОЕ)</t>
+  </si>
+  <si>
+    <t>Читинское лесничество – филиал ФГКУ "УЛХИП" Минобороны России</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов и промышленной политики Забайкальского края</t>
+  </si>
+  <si>
+    <t>ФГБУ "Сохондинский государственный  природный биосферный заповедник"</t>
+  </si>
+  <si>
+    <t>Министерство природных ресурсов Забайкальского края</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Алханай"</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Плещеево озеро"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л ГОРОХОВЕЦКОЕ, Ярославская область)</t>
+  </si>
+  <si>
+    <t>ФГБУ "Национальный парк "Лосиный остров"</t>
+  </si>
+  <si>
+    <t>Государственная компания "Российские автомобильные дороги"</t>
+  </si>
+  <si>
+    <t>Комитет по благоустройству Санкт-Петербурга</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение «Государственный заповедник «Бастак»</t>
+  </si>
+  <si>
+    <t>Департамент природных ресурсов и несырьевого сектора экономики Ханты-Мансийского АО - Югры</t>
+  </si>
+  <si>
+    <t>МАУ "ГОРОДСКОЕ ЛЕСНИЧЕСТВО"</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ЛЕСНОГО ХОЗЯЙСТВА И ПРИРОДОПОЛЬЗОВАНИЯ" МИНИСТЕРСТВА ОБОРОНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ (ф-л КРЫМСКОЕ)</t>
+  </si>
+  <si>
+    <t>Министерство экологии и природных ресурсов Республики Крым</t>
+  </si>
+  <si>
+    <t>Главное управление природных ресурсов и экологии города Севастополя (Севприроднадзор)</t>
   </si>
 </sst>
 </file>
@@ -861,18 +1614,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="202" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,722 +1649,722 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>156</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>574</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>344</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>476</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>477</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>483</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>567</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>430</v>
       </c>
       <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>616</v>
       </c>
       <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>629</v>
       </c>
       <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>630</v>
       </c>
       <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>637</v>
       </c>
       <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>638</v>
       </c>
       <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>444</v>
       </c>
       <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>589</v>
       </c>
       <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>144</v>
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>146</v>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>148</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>507</v>
       </c>
       <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>612</v>
       </c>
       <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>162</v>
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>509</v>
       </c>
       <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>599</v>
       </c>
       <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>492</v>
       </c>
       <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>497</v>
       </c>
       <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>499</v>
       </c>
       <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>164</v>
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>504</v>
       </c>
       <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>607</v>
       </c>
       <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>666</v>
       </c>
       <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
@@ -1619,55 +2372,55 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>426</v>
       </c>
       <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>505</v>
       </c>
       <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>575</v>
       </c>
       <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>129</v>
@@ -1675,377 +2428,6036 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>656</v>
       </c>
       <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>126</v>
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>112</v>
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>478</v>
       </c>
       <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>559</v>
       </c>
       <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>484</v>
       </c>
       <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>116</v>
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>529</v>
       </c>
       <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>542</v>
       </c>
       <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>158</v>
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>613</v>
       </c>
       <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>633</v>
       </c>
       <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>644</v>
       </c>
       <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>513</v>
       </c>
       <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="B78">
-        <v>79</v>
-      </c>
-      <c r="C78" t="s">
-        <v>154</v>
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="B79">
-        <v>83</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>142</v>
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>87</v>
+        <v>398</v>
       </c>
       <c r="B81">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="B82">
-        <v>89</v>
-      </c>
-      <c r="C82" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>91</v>
+        <v>480</v>
       </c>
       <c r="B83">
-        <v>91</v>
-      </c>
-      <c r="C83" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
+        <v>570</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>449</v>
+      </c>
+      <c r="B86">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>450</v>
+      </c>
+      <c r="B87">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>546</v>
+      </c>
+      <c r="B88">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>361</v>
+      </c>
+      <c r="B90">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>383</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>447</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>591</v>
+      </c>
+      <c r="B93">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>451</v>
+      </c>
+      <c r="B95">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>586</v>
+      </c>
+      <c r="B96">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>653</v>
+      </c>
+      <c r="B97">
+        <v>19</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>576</v>
+      </c>
+      <c r="B99">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>21</v>
+      </c>
+      <c r="B100">
+        <v>21</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>404</v>
+      </c>
+      <c r="B101">
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>482</v>
+      </c>
+      <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>548</v>
+      </c>
+      <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>345</v>
+      </c>
+      <c r="B105">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>527</v>
+      </c>
+      <c r="B106">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>551</v>
+      </c>
+      <c r="B107">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>643</v>
+      </c>
+      <c r="B108">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>23</v>
+      </c>
+      <c r="B109">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>333</v>
+      </c>
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>336</v>
+      </c>
+      <c r="B111">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>363</v>
+      </c>
+      <c r="B112">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>376</v>
+      </c>
+      <c r="B113">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>506</v>
+      </c>
+      <c r="B114">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>510</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>564</v>
+      </c>
+      <c r="B116">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>315</v>
+      </c>
+      <c r="B118">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>354</v>
+      </c>
+      <c r="B119">
+        <v>24</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>381</v>
+      </c>
+      <c r="B120">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>382</v>
+      </c>
+      <c r="B121">
+        <v>24</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>436</v>
+      </c>
+      <c r="B122">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>438</v>
+      </c>
+      <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>439</v>
+      </c>
+      <c r="B124">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>441</v>
+      </c>
+      <c r="B125">
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>442</v>
+      </c>
+      <c r="B126">
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>443</v>
+      </c>
+      <c r="B127">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>452</v>
+      </c>
+      <c r="B128">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>544</v>
+      </c>
+      <c r="B129">
+        <v>24</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>646</v>
+      </c>
+      <c r="B130">
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>25</v>
+      </c>
+      <c r="B131">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>313</v>
+      </c>
+      <c r="B132">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>319</v>
+      </c>
+      <c r="B133">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>325</v>
+      </c>
+      <c r="B134">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>343</v>
+      </c>
+      <c r="B135">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>359</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>369</v>
+      </c>
+      <c r="B137">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>411</v>
+      </c>
+      <c r="B138">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>412</v>
+      </c>
+      <c r="B139">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>413</v>
+      </c>
+      <c r="B140">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>414</v>
+      </c>
+      <c r="B141">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>549</v>
+      </c>
+      <c r="B142">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>26</v>
+      </c>
+      <c r="B143">
+        <v>26</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>565</v>
+      </c>
+      <c r="B144">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>27</v>
+      </c>
+      <c r="B145">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>322</v>
+      </c>
+      <c r="B146">
+        <v>27</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>370</v>
+      </c>
+      <c r="B147">
+        <v>27</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>417</v>
+      </c>
+      <c r="B148">
+        <v>27</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>418</v>
+      </c>
+      <c r="B149">
+        <v>27</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>419</v>
+      </c>
+      <c r="B150">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>420</v>
+      </c>
+      <c r="B151">
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>572</v>
+      </c>
+      <c r="B152">
+        <v>27</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>28</v>
+      </c>
+      <c r="B153">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>339</v>
+      </c>
+      <c r="B154">
+        <v>28</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>349</v>
+      </c>
+      <c r="B155">
+        <v>28</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>406</v>
+      </c>
+      <c r="B156">
+        <v>28</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>407</v>
+      </c>
+      <c r="B157">
+        <v>28</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>593</v>
+      </c>
+      <c r="B158">
+        <v>28</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>29</v>
+      </c>
+      <c r="B159">
+        <v>29</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>303</v>
+      </c>
+      <c r="B160">
+        <v>29</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>342</v>
+      </c>
+      <c r="B161">
+        <v>29</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>490</v>
+      </c>
+      <c r="B162">
+        <v>29</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>500</v>
+      </c>
+      <c r="B163">
+        <v>29</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>569</v>
+      </c>
+      <c r="B164">
+        <v>29</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>621</v>
+      </c>
+      <c r="B165">
+        <v>29</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>645</v>
+      </c>
+      <c r="B166">
+        <v>29</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>652</v>
+      </c>
+      <c r="B167">
+        <v>29</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>667</v>
+      </c>
+      <c r="B168">
+        <v>29</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>30</v>
+      </c>
+      <c r="B169">
+        <v>30</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>594</v>
+      </c>
+      <c r="B170">
+        <v>30</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>31</v>
+      </c>
+      <c r="B171">
+        <v>31</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>453</v>
+      </c>
+      <c r="B172">
+        <v>31</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>603</v>
+      </c>
+      <c r="B173">
+        <v>31</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>635</v>
+      </c>
+      <c r="B174">
+        <v>31</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>673</v>
+      </c>
+      <c r="B175">
+        <v>31</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>32</v>
+      </c>
+      <c r="B176">
+        <v>32</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>202</v>
+      </c>
+      <c r="B177">
+        <v>32</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>304</v>
+      </c>
+      <c r="B178">
+        <v>32</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>347</v>
+      </c>
+      <c r="B179">
+        <v>32</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>454</v>
+      </c>
+      <c r="B180">
+        <v>32</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>577</v>
+      </c>
+      <c r="B181">
+        <v>32</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>631</v>
+      </c>
+      <c r="B182">
+        <v>32</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>33</v>
+      </c>
+      <c r="B183">
+        <v>33</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>302</v>
+      </c>
+      <c r="B184">
+        <v>33</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>353</v>
+      </c>
+      <c r="B185">
+        <v>33</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>465</v>
+      </c>
+      <c r="B186">
+        <v>33</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>533</v>
+      </c>
+      <c r="B187">
+        <v>33</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>539</v>
+      </c>
+      <c r="B188">
+        <v>33</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>680</v>
+      </c>
+      <c r="B189">
+        <v>33</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>34</v>
+      </c>
+      <c r="B190">
+        <v>34</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>300</v>
+      </c>
+      <c r="B191">
+        <v>34</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>405</v>
+      </c>
+      <c r="B192">
+        <v>34</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>519</v>
+      </c>
+      <c r="B193">
+        <v>34</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>560</v>
+      </c>
+      <c r="B194">
+        <v>34</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>35</v>
+      </c>
+      <c r="B195">
+        <v>35</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>491</v>
+      </c>
+      <c r="B196">
+        <v>35</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>501</v>
+      </c>
+      <c r="B197">
+        <v>35</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>522</v>
+      </c>
+      <c r="B198">
+        <v>35</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>604</v>
+      </c>
+      <c r="B199">
+        <v>35</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>36</v>
+      </c>
+      <c r="B200">
+        <v>36</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>455</v>
+      </c>
+      <c r="B201">
+        <v>36</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>456</v>
+      </c>
+      <c r="B202">
+        <v>36</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>568</v>
+      </c>
+      <c r="B203">
+        <v>36</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>674</v>
+      </c>
+      <c r="B204">
+        <v>36</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>37</v>
+      </c>
+      <c r="B205">
+        <v>37</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>530</v>
+      </c>
+      <c r="B206">
+        <v>37</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>581</v>
+      </c>
+      <c r="B207">
+        <v>37</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>38</v>
+      </c>
+      <c r="B208">
+        <v>38</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>139</v>
+      </c>
+      <c r="B209">
+        <v>38</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>318</v>
+      </c>
+      <c r="B210">
+        <v>38</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>330</v>
+      </c>
+      <c r="B211">
+        <v>38</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>374</v>
+      </c>
+      <c r="B212">
+        <v>38</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>422</v>
+      </c>
+      <c r="B213">
+        <v>38</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>423</v>
+      </c>
+      <c r="B214">
+        <v>38</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>524</v>
+      </c>
+      <c r="B215">
+        <v>38</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>525</v>
+      </c>
+      <c r="B216">
+        <v>38</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>554</v>
+      </c>
+      <c r="B217">
+        <v>38</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>622</v>
+      </c>
+      <c r="B218">
+        <v>38</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>39</v>
+      </c>
+      <c r="B219">
+        <v>39</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>502</v>
+      </c>
+      <c r="B220">
+        <v>39</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>545</v>
+      </c>
+      <c r="B221">
+        <v>39</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>627</v>
+      </c>
+      <c r="B222">
+        <v>39</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>628</v>
+      </c>
+      <c r="B223">
+        <v>39</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>640</v>
+      </c>
+      <c r="B224">
+        <v>39</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>679</v>
+      </c>
+      <c r="B225">
+        <v>39</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>40</v>
+      </c>
+      <c r="B226">
+        <v>40</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>457</v>
+      </c>
+      <c r="B227">
+        <v>40</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>466</v>
+      </c>
+      <c r="B228">
+        <v>40</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>535</v>
+      </c>
+      <c r="B229">
+        <v>40</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>642</v>
+      </c>
+      <c r="B230">
+        <v>40</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>675</v>
+      </c>
+      <c r="B231">
+        <v>40</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>681</v>
+      </c>
+      <c r="B232">
+        <v>40</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>41</v>
+      </c>
+      <c r="B233">
+        <v>41</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>328</v>
+      </c>
+      <c r="B234">
+        <v>41</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>341</v>
+      </c>
+      <c r="B235">
+        <v>41</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>409</v>
+      </c>
+      <c r="B236">
+        <v>41</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>609</v>
+      </c>
+      <c r="B237">
+        <v>41</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>42</v>
+      </c>
+      <c r="B238">
+        <v>42</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>424</v>
+      </c>
+      <c r="B239">
+        <v>42</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>434</v>
+      </c>
+      <c r="B240">
+        <v>42</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>590</v>
+      </c>
+      <c r="B241">
+        <v>42</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>625</v>
+      </c>
+      <c r="B242">
+        <v>42</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>684</v>
+      </c>
+      <c r="B243">
+        <v>42</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>43</v>
+      </c>
+      <c r="B244">
+        <v>43</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>323</v>
+      </c>
+      <c r="B245">
+        <v>43</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>362</v>
+      </c>
+      <c r="B246">
+        <v>43</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>386</v>
+      </c>
+      <c r="B247">
+        <v>43</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>471</v>
+      </c>
+      <c r="B248">
+        <v>43</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>597</v>
+      </c>
+      <c r="B249">
+        <v>43</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>636</v>
+      </c>
+      <c r="B250">
+        <v>43</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>44</v>
+      </c>
+      <c r="B251">
+        <v>44</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>458</v>
+      </c>
+      <c r="B252">
+        <v>44</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>528</v>
+      </c>
+      <c r="B253">
+        <v>44</v>
+      </c>
+      <c r="C253">
+        <v>4</v>
+      </c>
+      <c r="D253" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>531</v>
+      </c>
+      <c r="B254">
+        <v>44</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>582</v>
+      </c>
+      <c r="B255">
+        <v>44</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>45</v>
+      </c>
+      <c r="B256">
+        <v>45</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>204</v>
+      </c>
+      <c r="B257">
+        <v>45</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>534</v>
+      </c>
+      <c r="B258">
+        <v>45</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>555</v>
+      </c>
+      <c r="B259">
+        <v>45</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>686</v>
+      </c>
+      <c r="B260">
+        <v>45</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>46</v>
+      </c>
+      <c r="B261">
+        <v>46</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>203</v>
+      </c>
+      <c r="B262">
+        <v>46</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+      <c r="D262" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>459</v>
+      </c>
+      <c r="B263">
+        <v>46</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>614</v>
+      </c>
+      <c r="B264">
+        <v>46</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>654</v>
+      </c>
+      <c r="B265">
+        <v>46</v>
+      </c>
+      <c r="C265">
+        <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>659</v>
+      </c>
+      <c r="B266">
+        <v>46</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>672</v>
+      </c>
+      <c r="B267">
+        <v>46</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>47</v>
+      </c>
+      <c r="B268">
+        <v>47</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>308</v>
+      </c>
+      <c r="B269">
+        <v>47</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>309</v>
+      </c>
+      <c r="B270">
+        <v>47</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>355</v>
+      </c>
+      <c r="B271">
+        <v>47</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>356</v>
+      </c>
+      <c r="B272">
+        <v>47</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>389</v>
+      </c>
+      <c r="B273">
+        <v>47</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>521</v>
+      </c>
+      <c r="B274">
+        <v>47</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>571</v>
+      </c>
+      <c r="B275">
+        <v>47</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>647</v>
+      </c>
+      <c r="B276">
+        <v>47</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>690</v>
+      </c>
+      <c r="B277">
+        <v>47</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>48</v>
+      </c>
+      <c r="B278">
+        <v>48</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>578</v>
+      </c>
+      <c r="B279">
+        <v>48</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>670</v>
+      </c>
+      <c r="B280">
+        <v>48</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>49</v>
+      </c>
+      <c r="B281">
+        <v>49</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>410</v>
+      </c>
+      <c r="B282">
+        <v>49</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>610</v>
+      </c>
+      <c r="B283">
+        <v>49</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>50</v>
+      </c>
+      <c r="B284">
+        <v>50</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>305</v>
+      </c>
+      <c r="B285">
+        <v>50</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>307</v>
+      </c>
+      <c r="B286">
+        <v>50</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>461</v>
+      </c>
+      <c r="B287">
+        <v>50</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>651</v>
+      </c>
+      <c r="B288">
+        <v>50</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>676</v>
+      </c>
+      <c r="B289">
+        <v>50</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>51</v>
+      </c>
+      <c r="B290">
+        <v>51</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>399</v>
+      </c>
+      <c r="B291">
+        <v>51</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>401</v>
+      </c>
+      <c r="B292">
+        <v>51</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>493</v>
+      </c>
+      <c r="B293">
+        <v>51</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>494</v>
+      </c>
+      <c r="B294">
+        <v>51</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>523</v>
+      </c>
+      <c r="B295">
+        <v>51</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>606</v>
+      </c>
+      <c r="B296">
+        <v>51</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>668</v>
+      </c>
+      <c r="B297">
+        <v>51</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>52</v>
+      </c>
+      <c r="B298">
+        <v>52</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>306</v>
+      </c>
+      <c r="B299">
+        <v>52</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>348</v>
+      </c>
+      <c r="B300">
+        <v>52</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+      <c r="D300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>472</v>
+      </c>
+      <c r="B301">
+        <v>52</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>561</v>
+      </c>
+      <c r="B302">
+        <v>52</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>620</v>
+      </c>
+      <c r="B303">
+        <v>52</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>623</v>
+      </c>
+      <c r="B304">
+        <v>52</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>639</v>
+      </c>
+      <c r="B305">
+        <v>52</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+      <c r="D305" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>658</v>
+      </c>
+      <c r="B306">
+        <v>52</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>694</v>
+      </c>
+      <c r="B307">
+        <v>52</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+      <c r="D307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>53</v>
+      </c>
+      <c r="B308">
+        <v>53</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>486</v>
+      </c>
+      <c r="B309">
+        <v>53</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>495</v>
+      </c>
+      <c r="B310">
+        <v>53</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>566</v>
+      </c>
+      <c r="B311">
+        <v>53</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>615</v>
+      </c>
+      <c r="B312">
+        <v>53</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+      <c r="D312" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>619</v>
+      </c>
+      <c r="B313">
+        <v>53</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>687</v>
+      </c>
+      <c r="B314">
+        <v>53</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+      <c r="D314" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>54</v>
+      </c>
+      <c r="B315">
+        <v>54</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>205</v>
+      </c>
+      <c r="B316">
+        <v>54</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>321</v>
+      </c>
+      <c r="B317">
+        <v>54</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>338</v>
+      </c>
+      <c r="B318">
+        <v>54</v>
+      </c>
+      <c r="C318">
+        <v>3</v>
+      </c>
+      <c r="D318" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>358</v>
+      </c>
+      <c r="B319">
+        <v>54</v>
+      </c>
+      <c r="C319">
+        <v>3</v>
+      </c>
+      <c r="D319" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>514</v>
+      </c>
+      <c r="B320">
+        <v>54</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>557</v>
+      </c>
+      <c r="B321">
+        <v>54</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>648</v>
+      </c>
+      <c r="B322">
+        <v>54</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+      <c r="D322" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>693</v>
+      </c>
+      <c r="B323">
+        <v>54</v>
+      </c>
+      <c r="C323">
+        <v>3</v>
+      </c>
+      <c r="D323" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>55</v>
+      </c>
+      <c r="B324">
+        <v>55</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>526</v>
+      </c>
+      <c r="B325">
+        <v>55</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>592</v>
+      </c>
+      <c r="B326">
+        <v>55</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>691</v>
+      </c>
+      <c r="B327">
+        <v>55</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+      <c r="D327" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>56</v>
+      </c>
+      <c r="B328">
+        <v>56</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>332</v>
+      </c>
+      <c r="B329">
+        <v>56</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+      <c r="D329" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>367</v>
+      </c>
+      <c r="B330">
+        <v>56</v>
+      </c>
+      <c r="C330">
+        <v>3</v>
+      </c>
+      <c r="D330" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>384</v>
+      </c>
+      <c r="B331">
+        <v>56</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>562</v>
+      </c>
+      <c r="B332">
+        <v>56</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>57</v>
+      </c>
+      <c r="B333">
+        <v>57</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>468</v>
+      </c>
+      <c r="B334">
+        <v>57</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>579</v>
+      </c>
+      <c r="B335">
+        <v>57</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>689</v>
+      </c>
+      <c r="B336">
+        <v>57</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>58</v>
+      </c>
+      <c r="B337">
+        <v>58</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>317</v>
+      </c>
+      <c r="B338">
+        <v>58</v>
+      </c>
+      <c r="C338">
+        <v>3</v>
+      </c>
+      <c r="D338" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>473</v>
+      </c>
+      <c r="B339">
+        <v>58</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>573</v>
+      </c>
+      <c r="B340">
+        <v>58</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>663</v>
+      </c>
+      <c r="B341">
+        <v>58</v>
+      </c>
+      <c r="C341">
+        <v>3</v>
+      </c>
+      <c r="D341" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>59</v>
+      </c>
+      <c r="B342">
+        <v>59</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>320</v>
+      </c>
+      <c r="B343">
+        <v>59</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+      <c r="D343" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>385</v>
+      </c>
+      <c r="B344">
+        <v>59</v>
+      </c>
+      <c r="C344">
+        <v>4</v>
+      </c>
+      <c r="D344" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>396</v>
+      </c>
+      <c r="B345">
+        <v>59</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>433</v>
+      </c>
+      <c r="B346">
+        <v>59</v>
+      </c>
+      <c r="C346">
+        <v>4</v>
+      </c>
+      <c r="D346" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>460</v>
+      </c>
+      <c r="B347">
+        <v>59</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>474</v>
+      </c>
+      <c r="B348">
+        <v>59</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>475</v>
+      </c>
+      <c r="B349">
+        <v>59</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>556</v>
+      </c>
+      <c r="B350">
+        <v>59</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>624</v>
+      </c>
+      <c r="B351">
+        <v>59</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+      <c r="D351" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>655</v>
+      </c>
+      <c r="B352">
+        <v>59</v>
+      </c>
+      <c r="C352">
+        <v>4</v>
+      </c>
+      <c r="D352" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>657</v>
+      </c>
+      <c r="B353">
+        <v>59</v>
+      </c>
+      <c r="C353">
+        <v>4</v>
+      </c>
+      <c r="D353" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>685</v>
+      </c>
+      <c r="B354">
+        <v>59</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>60</v>
+      </c>
+      <c r="B355">
+        <v>60</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>496</v>
+      </c>
+      <c r="B356">
+        <v>60</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>503</v>
+      </c>
+      <c r="B357">
+        <v>60</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>602</v>
+      </c>
+      <c r="B358">
+        <v>60</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>650</v>
+      </c>
+      <c r="B359">
+        <v>60</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>678</v>
+      </c>
+      <c r="B360">
+        <v>60</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>61</v>
+      </c>
+      <c r="B361">
+        <v>61</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>397</v>
+      </c>
+      <c r="B362">
+        <v>61</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>596</v>
+      </c>
+      <c r="B363">
+        <v>61</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>660</v>
+      </c>
+      <c r="B364">
+        <v>61</v>
+      </c>
+      <c r="C364">
+        <v>4</v>
+      </c>
+      <c r="D364" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>62</v>
+      </c>
+      <c r="B365">
+        <v>62</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>462</v>
+      </c>
+      <c r="B366">
+        <v>62</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>517</v>
+      </c>
+      <c r="B367">
+        <v>62</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>540</v>
+      </c>
+      <c r="B368">
+        <v>62</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>682</v>
+      </c>
+      <c r="B369">
+        <v>62</v>
+      </c>
+      <c r="C369">
+        <v>3</v>
+      </c>
+      <c r="D369" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>63</v>
+      </c>
+      <c r="B370">
+        <v>63</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>165</v>
+      </c>
+      <c r="B371">
+        <v>63</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>394</v>
+      </c>
+      <c r="B372">
+        <v>63</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>429</v>
+      </c>
+      <c r="B373">
+        <v>63</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>481</v>
+      </c>
+      <c r="B374">
+        <v>63</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>598</v>
+      </c>
+      <c r="B375">
+        <v>63</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>64</v>
+      </c>
+      <c r="B376">
+        <v>64</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>360</v>
+      </c>
+      <c r="B377">
+        <v>64</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+      <c r="D377" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>402</v>
+      </c>
+      <c r="B378">
+        <v>64</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>550</v>
+      </c>
+      <c r="B379">
+        <v>64</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>65</v>
+      </c>
+      <c r="B380">
+        <v>65</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>316</v>
+      </c>
+      <c r="B381">
+        <v>65</v>
+      </c>
+      <c r="C381">
+        <v>3</v>
+      </c>
+      <c r="D381" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>375</v>
+      </c>
+      <c r="B382">
+        <v>65</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+      <c r="D382" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>415</v>
+      </c>
+      <c r="B383">
+        <v>65</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>416</v>
+      </c>
+      <c r="B384">
+        <v>65</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>588</v>
+      </c>
+      <c r="B385">
+        <v>65</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>661</v>
+      </c>
+      <c r="B386">
+        <v>65</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>66</v>
+      </c>
+      <c r="B387">
+        <v>66</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>314</v>
+      </c>
+      <c r="B388">
+        <v>66</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>326</v>
+      </c>
+      <c r="B389">
+        <v>66</v>
+      </c>
+      <c r="C389">
+        <v>3</v>
+      </c>
+      <c r="D389" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>337</v>
+      </c>
+      <c r="B390">
+        <v>66</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+      <c r="D390" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>340</v>
+      </c>
+      <c r="B391">
+        <v>66</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+      <c r="D391" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>351</v>
+      </c>
+      <c r="B392">
+        <v>66</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>352</v>
+      </c>
+      <c r="B393">
+        <v>66</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+      <c r="D393" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>357</v>
+      </c>
+      <c r="B394">
+        <v>66</v>
+      </c>
+      <c r="C394">
+        <v>3</v>
+      </c>
+      <c r="D394" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>364</v>
+      </c>
+      <c r="B395">
+        <v>66</v>
+      </c>
+      <c r="C395">
+        <v>3</v>
+      </c>
+      <c r="D395" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>390</v>
+      </c>
+      <c r="B396">
+        <v>66</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>391</v>
+      </c>
+      <c r="B397">
+        <v>66</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+      <c r="D397" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>393</v>
+      </c>
+      <c r="B398">
+        <v>66</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>395</v>
+      </c>
+      <c r="B399">
+        <v>66</v>
+      </c>
+      <c r="C399">
+        <v>4</v>
+      </c>
+      <c r="D399" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>437</v>
+      </c>
+      <c r="B400">
+        <v>66</v>
+      </c>
+      <c r="C400">
+        <v>4</v>
+      </c>
+      <c r="D400" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>440</v>
+      </c>
+      <c r="B401">
+        <v>66</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>485</v>
+      </c>
+      <c r="B402">
+        <v>66</v>
+      </c>
+      <c r="C402">
+        <v>4</v>
+      </c>
+      <c r="D402" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>487</v>
+      </c>
+      <c r="B403">
+        <v>66</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>587</v>
+      </c>
+      <c r="B404">
+        <v>66</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>618</v>
+      </c>
+      <c r="B405">
+        <v>66</v>
+      </c>
+      <c r="C405">
+        <v>4</v>
+      </c>
+      <c r="D405" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>632</v>
+      </c>
+      <c r="B406">
+        <v>66</v>
+      </c>
+      <c r="C406">
+        <v>4</v>
+      </c>
+      <c r="D406" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>634</v>
+      </c>
+      <c r="B407">
+        <v>66</v>
+      </c>
+      <c r="C407">
+        <v>4</v>
+      </c>
+      <c r="D407" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>649</v>
+      </c>
+      <c r="B408">
+        <v>66</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+      <c r="D408" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>665</v>
+      </c>
+      <c r="B409">
+        <v>66</v>
+      </c>
+      <c r="C409">
+        <v>5</v>
+      </c>
+      <c r="D409" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>67</v>
+      </c>
+      <c r="B410">
+        <v>67</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>388</v>
+      </c>
+      <c r="B411">
+        <v>67</v>
+      </c>
+      <c r="C411">
+        <v>4</v>
+      </c>
+      <c r="D411" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>469</v>
+      </c>
+      <c r="B412">
+        <v>67</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>538</v>
+      </c>
+      <c r="B413">
+        <v>67</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>669</v>
+      </c>
+      <c r="B414">
+        <v>67</v>
+      </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
+      <c r="D414" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>68</v>
+      </c>
+      <c r="B415">
+        <v>68</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>463</v>
+      </c>
+      <c r="B416">
+        <v>68</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>583</v>
+      </c>
+      <c r="B417">
+        <v>68</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>671</v>
+      </c>
+      <c r="B418">
+        <v>68</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+      <c r="D418" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>69</v>
+      </c>
+      <c r="B419">
+        <v>69</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>310</v>
+      </c>
+      <c r="B420">
+        <v>69</v>
+      </c>
+      <c r="C420">
+        <v>3</v>
+      </c>
+      <c r="D420" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>366</v>
+      </c>
+      <c r="B421">
+        <v>69</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+      <c r="D421" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>464</v>
+      </c>
+      <c r="B422">
+        <v>69</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>537</v>
+      </c>
+      <c r="B423">
+        <v>69</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>70</v>
+      </c>
+      <c r="B424">
+        <v>70</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>200</v>
+      </c>
+      <c r="B425">
+        <v>70</v>
+      </c>
+      <c r="C425">
+        <v>9</v>
+      </c>
+      <c r="D425" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>553</v>
+      </c>
+      <c r="B426">
+        <v>70</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>641</v>
+      </c>
+      <c r="B427">
+        <v>70</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>692</v>
+      </c>
+      <c r="B428">
+        <v>70</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+      <c r="D428" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>71</v>
+      </c>
+      <c r="B429">
+        <v>71</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>536</v>
+      </c>
+      <c r="B430">
+        <v>71</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>683</v>
+      </c>
+      <c r="B431">
+        <v>71</v>
+      </c>
+      <c r="C431">
+        <v>3</v>
+      </c>
+      <c r="D431" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>72</v>
+      </c>
+      <c r="B432">
+        <v>72</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>334</v>
+      </c>
+      <c r="B433">
+        <v>72</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+      <c r="D433" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>346</v>
+      </c>
+      <c r="B434">
+        <v>72</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+      <c r="D434" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>380</v>
+      </c>
+      <c r="B435">
+        <v>72</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>541</v>
+      </c>
+      <c r="B436">
+        <v>72</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>73</v>
+      </c>
+      <c r="B437">
+        <v>73</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>176</v>
+      </c>
+      <c r="B438">
+        <v>73</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>552</v>
+      </c>
+      <c r="B439">
+        <v>73</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>664</v>
+      </c>
+      <c r="B440">
+        <v>73</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="D440" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>74</v>
+      </c>
+      <c r="B441">
+        <v>74</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>301</v>
+      </c>
+      <c r="B442">
+        <v>74</v>
+      </c>
+      <c r="C442">
+        <v>4</v>
+      </c>
+      <c r="D442" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>335</v>
+      </c>
+      <c r="B443">
+        <v>74</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>372</v>
+      </c>
+      <c r="B444">
+        <v>74</v>
+      </c>
+      <c r="C444">
+        <v>3</v>
+      </c>
+      <c r="D444" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>425</v>
+      </c>
+      <c r="B445">
+        <v>74</v>
+      </c>
+      <c r="C445">
+        <v>4</v>
+      </c>
+      <c r="D445" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>431</v>
+      </c>
+      <c r="B446">
+        <v>74</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>435</v>
+      </c>
+      <c r="B447">
+        <v>74</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>488</v>
+      </c>
+      <c r="B448">
+        <v>74</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>489</v>
+      </c>
+      <c r="B449">
+        <v>74</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>547</v>
+      </c>
+      <c r="B450">
+        <v>74</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>617</v>
+      </c>
+      <c r="B451">
+        <v>74</v>
+      </c>
+      <c r="C451">
+        <v>4</v>
+      </c>
+      <c r="D451" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>75</v>
+      </c>
+      <c r="B452">
+        <v>75</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>312</v>
+      </c>
+      <c r="B453">
+        <v>75</v>
+      </c>
+      <c r="C453">
+        <v>3</v>
+      </c>
+      <c r="D453" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>327</v>
+      </c>
+      <c r="B454">
+        <v>75</v>
+      </c>
+      <c r="C454">
+        <v>3</v>
+      </c>
+      <c r="D454" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>350</v>
+      </c>
+      <c r="B455">
+        <v>75</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>373</v>
+      </c>
+      <c r="B456">
+        <v>75</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+      <c r="D456" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>392</v>
+      </c>
+      <c r="B457">
+        <v>75</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>421</v>
+      </c>
+      <c r="B458">
+        <v>75</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>518</v>
+      </c>
+      <c r="B459">
+        <v>75</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>520</v>
+      </c>
+      <c r="B460">
+        <v>75</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>558</v>
+      </c>
+      <c r="B461">
+        <v>75</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>76</v>
+      </c>
+      <c r="B462">
+        <v>76</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>470</v>
+      </c>
+      <c r="B463">
+        <v>76</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>532</v>
+      </c>
+      <c r="B464">
+        <v>76</v>
+      </c>
+      <c r="C464">
+        <v>3</v>
+      </c>
+      <c r="D464" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>580</v>
+      </c>
+      <c r="B465">
+        <v>76</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>677</v>
+      </c>
+      <c r="B466">
+        <v>76</v>
+      </c>
+      <c r="C466">
+        <v>3</v>
+      </c>
+      <c r="D466" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>77</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>662</v>
+      </c>
+      <c r="B468">
+        <v>77</v>
+      </c>
+      <c r="C468">
+        <v>6</v>
+      </c>
+      <c r="D468" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>378</v>
+      </c>
+      <c r="B469">
+        <v>78</v>
+      </c>
+      <c r="C469">
+        <v>4</v>
+      </c>
+      <c r="D469" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>79</v>
+      </c>
+      <c r="B470">
+        <v>79</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>408</v>
+      </c>
+      <c r="B471">
+        <v>79</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>608</v>
+      </c>
+      <c r="B472">
+        <v>79</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>83</v>
+      </c>
+      <c r="B473">
+        <v>83</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>605</v>
+      </c>
+      <c r="B474">
+        <v>83</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>86</v>
+      </c>
+      <c r="B475">
+        <v>86</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>184</v>
+      </c>
+      <c r="B476">
+        <v>86</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>584</v>
+      </c>
+      <c r="B477">
+        <v>86</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>626</v>
+      </c>
+      <c r="B478">
+        <v>86</v>
+      </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>87</v>
+      </c>
+      <c r="B479">
+        <v>87</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>611</v>
+      </c>
+      <c r="B480">
+        <v>87</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>89</v>
+      </c>
+      <c r="B481">
+        <v>89</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>585</v>
+      </c>
+      <c r="B482">
+        <v>89</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>91</v>
+      </c>
+      <c r="B483">
+        <v>91</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>377</v>
+      </c>
+      <c r="B484">
+        <v>91</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>515</v>
+      </c>
+      <c r="B485">
+        <v>91</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
         <v>92</v>
       </c>
-      <c r="B84">
+      <c r="B486">
         <v>92</v>
       </c>
-      <c r="C84" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" t="s">
-        <v>161</v>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>387</v>
+      </c>
+      <c r="B487">
+        <v>92</v>
+      </c>
+      <c r="C487">
+        <v>10</v>
+      </c>
+      <c r="D487" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>512</v>
+      </c>
+      <c r="B488">
+        <v>92</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/catalogsList/05072021/executiveAuthority.xlsx
+++ b/catalogsList/05072021/executiveAuthority.xlsx
@@ -72,9 +72,6 @@
     <t>Департамент лесного хозяйства Новосибирской области</t>
   </si>
   <si>
-    <t>Департамент лесного хозяйства Приморского края</t>
-  </si>
-  <si>
     <t>Департамент лесного хозяйства Томской области</t>
   </si>
   <si>
@@ -1276,6 +1273,9 @@
   </si>
   <si>
     <t>Главное управление природных ресурсов и экологии города Севастополя (Севприроднадзор)</t>
+  </si>
+  <si>
+    <t>Министерство лесного хозяйства и охраны объектов животного мира Приморского края</t>
   </si>
 </sst>
 </file>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2269,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2311,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2479,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2507,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2619,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2787,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2885,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2899,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2983,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3095,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3137,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3179,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3221,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3277,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3305,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3403,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3445,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3515,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3529,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3683,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3697,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3725,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3739,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3781,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3879,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3893,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3907,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3949,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4033,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4075,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4103,7 +4103,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4117,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4131,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4215,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4299,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4369,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4383,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4397,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4453,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4509,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4565,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4579,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4593,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4621,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4635,7 +4635,7 @@
         <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4649,7 +4649,7 @@
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4677,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4761,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4859,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4873,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4901,7 +4901,7 @@
         <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4915,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4929,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4971,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4985,7 +4985,7 @@
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -5013,7 +5013,7 @@
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5027,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5055,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5069,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5097,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -5125,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -5153,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -5167,7 +5167,7 @@
         <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5181,7 +5181,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5223,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5293,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="D262" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5307,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5335,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="D265" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5419,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5433,7 +5433,7 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5461,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5489,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="D276" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5573,7 +5573,7 @@
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5615,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5629,7 +5629,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5643,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="D287" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5657,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="D288" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5671,7 +5671,7 @@
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5699,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="D291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
         <v>10</v>
       </c>
       <c r="D292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5727,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="D293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5741,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="D294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5755,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5783,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5811,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="D299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="D300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5839,7 +5839,7 @@
         <v>2</v>
       </c>
       <c r="D301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5867,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="D304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5895,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="D305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5923,7 +5923,7 @@
         <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5951,7 +5951,7 @@
         <v>2</v>
       </c>
       <c r="D309" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5965,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="D310" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
         <v>5</v>
       </c>
       <c r="D312" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>3</v>
       </c>
       <c r="D314" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -6049,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="D316" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -6063,7 +6063,7 @@
         <v>3</v>
       </c>
       <c r="D317" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>3</v>
       </c>
       <c r="D318" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -6091,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="D319" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6133,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="D322" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6147,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="D323" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6175,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="D325" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -6203,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="D327" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -6231,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="D329" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -6245,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="D330" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -6259,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="D331" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="D334" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -6329,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="D336" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="D338" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -6371,7 +6371,7 @@
         <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -6399,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="D341" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -6427,7 +6427,7 @@
         <v>3</v>
       </c>
       <c r="D343" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="D344" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -6455,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="D345" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -6483,7 +6483,7 @@
         <v>4</v>
       </c>
       <c r="D347" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="D348" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -6511,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="D349" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -6539,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="D351" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="D352" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -6567,7 +6567,7 @@
         <v>4</v>
       </c>
       <c r="D353" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="D354" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -6609,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="D356" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -6623,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="D357" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="D359" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -6665,7 +6665,7 @@
         <v>3</v>
       </c>
       <c r="D360" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="D361" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -6693,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="D362" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="D363" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -6721,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="D364" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -6735,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -6749,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="D366" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -6763,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="D367" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -6791,7 +6791,7 @@
         <v>3</v>
       </c>
       <c r="D369" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="D370" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -6819,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="D372" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -6847,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="D373" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>2</v>
       </c>
       <c r="D374" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="D375" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -6889,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="D376" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -6903,7 +6903,7 @@
         <v>3</v>
       </c>
       <c r="D377" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -6917,7 +6917,7 @@
         <v>2</v>
       </c>
       <c r="D378" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -6959,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="D381" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -6973,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="D382" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -6987,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="D383" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="D384" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -7015,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -7057,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="D388" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -7071,7 +7071,7 @@
         <v>3</v>
       </c>
       <c r="D389" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -7085,7 +7085,7 @@
         <v>3</v>
       </c>
       <c r="D390" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -7099,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="D391" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -7113,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="D392" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -7127,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="D393" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -7141,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="D394" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -7155,7 +7155,7 @@
         <v>3</v>
       </c>
       <c r="D395" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -7169,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="D396" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -7183,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="D397" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="D398" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -7211,7 +7211,7 @@
         <v>4</v>
       </c>
       <c r="D399" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -7225,7 +7225,7 @@
         <v>4</v>
       </c>
       <c r="D400" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -7239,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="D401" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -7253,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="D402" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -7267,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="D403" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -7295,7 +7295,7 @@
         <v>4</v>
       </c>
       <c r="D405" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -7309,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="D406" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -7323,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="D407" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -7337,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="D408" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -7351,7 +7351,7 @@
         <v>5</v>
       </c>
       <c r="D409" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -7379,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="D411" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -7393,7 +7393,7 @@
         <v>2</v>
       </c>
       <c r="D412" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="D413" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -7421,7 +7421,7 @@
         <v>3</v>
       </c>
       <c r="D414" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="D415" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -7449,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="D416" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="D417" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="D418" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -7491,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -7505,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="D420" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -7519,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="D421" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -7533,7 +7533,7 @@
         <v>2</v>
       </c>
       <c r="D422" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -7547,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="D423" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -7561,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -7575,7 +7575,7 @@
         <v>9</v>
       </c>
       <c r="D425" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -7589,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -7603,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="D427" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -7617,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="D428" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="D429" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="D430" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -7659,7 +7659,7 @@
         <v>3</v>
       </c>
       <c r="D431" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -7687,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="D433" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>3</v>
       </c>
       <c r="D434" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -7715,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="D435" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="D436" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="D439" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -7785,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="D440" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>4</v>
       </c>
       <c r="D442" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -7827,7 +7827,7 @@
         <v>3</v>
       </c>
       <c r="D443" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -7841,7 +7841,7 @@
         <v>3</v>
       </c>
       <c r="D444" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -7855,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="D445" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -7869,7 +7869,7 @@
         <v>4</v>
       </c>
       <c r="D446" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -7883,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="D447" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -7897,7 +7897,7 @@
         <v>2</v>
       </c>
       <c r="D448" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -7911,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="D449" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="D450" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -7939,7 +7939,7 @@
         <v>4</v>
       </c>
       <c r="D451" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -7967,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="D453" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -7981,7 +7981,7 @@
         <v>3</v>
       </c>
       <c r="D454" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -7995,7 +7995,7 @@
         <v>3</v>
       </c>
       <c r="D455" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -8009,7 +8009,7 @@
         <v>3</v>
       </c>
       <c r="D456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="D457" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
         <v>2</v>
       </c>
       <c r="D458" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="D459" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -8065,7 +8065,7 @@
         <v>2</v>
       </c>
       <c r="D460" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="D461" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -8093,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -8107,7 +8107,7 @@
         <v>2</v>
       </c>
       <c r="D463" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="D464" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -8135,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="D465" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -8149,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="D466" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -8163,7 +8163,7 @@
         <v>2</v>
       </c>
       <c r="D467" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -8177,7 +8177,7 @@
         <v>6</v>
       </c>
       <c r="D468" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -8191,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="D469" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -8219,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="D471" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="D472" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="D473" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="D474" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="D475" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -8289,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="D477" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -8317,7 +8317,7 @@
         <v>4</v>
       </c>
       <c r="D478" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="D479" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="D480" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -8359,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="D481" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -8373,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="D482" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -8401,7 +8401,7 @@
         <v>3</v>
       </c>
       <c r="D484" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -8415,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="D485" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="D486" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -8443,7 +8443,7 @@
         <v>10</v>
       </c>
       <c r="D487" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -8457,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="D488" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
